--- a/data_to_use/preprocessed_data/tabla_de_verdad.xlsx
+++ b/data_to_use/preprocessed_data/tabla_de_verdad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Thesis_AnaPao\data_to_use\preprocessed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123A344-18DA-4EBD-8B54-6E91C7736C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00F547-3EC6-4876-B256-F708B4CDAEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{49358326-5292-4C7D-92BB-658520350A7B}"/>
   </bookViews>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -399,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -408,6 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1771,7 +1778,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,13 +2054,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -2088,13 +2095,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
@@ -2395,13 +2402,13 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
@@ -2433,13 +2440,13 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
@@ -2629,13 +2636,13 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
